--- a/medicine/Mort/Terrorisme_en_1972/Terrorisme_en_1972.xlsx
+++ b/medicine/Mort/Terrorisme_en_1972/Terrorisme_en_1972.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au cours de l'année 1972, les tensions en Irlande du Nord font quatre cent quatre-vingt-dix-sept morts, dont deux cent cinquante-neuf civils[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours de l'année 1972, les tensions en Irlande du Nord font quatre cent quatre-vingt-dix-sept morts, dont deux cent cinquante-neuf civils.
 </t>
         </is>
       </c>
@@ -513,27 +525,196 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-26 janvier 1972, Yougoslavie : un attentat contre le vol JAT 367 fait vingt-sept morts. Seule Vesna Vulović survit, et entre dans le livre Guinness des records pour avoir réalisé la plus haute chute sans parachute : 10 160 mètres. La thèse de l'attentat est toutefois remise en cause, et l'armée de l'air tchécoslovaque est soupçonnée d'avoir abattu l'avion[2].
-Février
-Mars
-Avril
-Mai
-11 mai, Allemagne de l'Ouest : un triple attentat à la bombe au QG militaire américain de Francfort, revendiqué par la Fraction armée rouge, fait un mort et treize blessés[3],[4]
-24 mai, Allemagne de l'Ouest : deux voitures piégées explosent au QG militaire américain d'Heidelberg par la Fraction armée rouge faisant trois morts et six blessés[3],[5].
-30 mai, Israël : l'attaque de l'aéroport de Lod par des membres de l'Armée rouge japonaise fait vingt-six morts et quatre-vingt blessés[6]
-Juin
-Juillet
-21 juillet, Irlande du Nord : en réponse au Bloody Sunday, l'IRA provisoire fait exploser vingt-deux bombes à Belfast, faisant neuf morts et plus de cent trente blessés. C'est le Bloody Friday[1],[7].
-31 juillet, Irlande du Nord : trois bombes explosent à Claudy (en), faisant neuf morts et trente blessés. Bien que jamais revendiquée, cette série d'attentats est attribuée à l'IRA provisoire[1].
-Août
-Septembre
-5 septembre : Allemagne de l'Ouest : la prise d'otages des Jeux olympiques de Munich par l'organisation palestinienne Septembre noir, se solde par la mort de douze personnes : onze athlètes israéliens, et un policier ouest-allemand[8],[9],[10].
-Octobre
-Novembre
-26 novembre, Irlande : une bombe explose à Dublin, dans le quartier de Burgh Quay, faisant quarante blessés mais aucun mort[réf. souhaitée].
-Décembre
-1er décembre, Irlande : deux bombes explosent à Dublin, la première à Eden Quay et la seconde à Sackville Place, tuant deux personnes[réf. souhaitée].</t>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>26 janvier 1972, Yougoslavie : un attentat contre le vol JAT 367 fait vingt-sept morts. Seule Vesna Vulović survit, et entre dans le livre Guinness des records pour avoir réalisé la plus haute chute sans parachute : 10 160 mètres. La thèse de l'attentat est toutefois remise en cause, et l'armée de l'air tchécoslovaque est soupçonnée d'avoir abattu l'avion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1972</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1972</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>11 mai, Allemagne de l'Ouest : un triple attentat à la bombe au QG militaire américain de Francfort, revendiqué par la Fraction armée rouge, fait un mort et treize blessés,
+24 mai, Allemagne de l'Ouest : deux voitures piégées explosent au QG militaire américain d'Heidelberg par la Fraction armée rouge faisant trois morts et six blessés,.
+30 mai, Israël : l'attaque de l'aéroport de Lod par des membres de l'Armée rouge japonaise fait vingt-six morts et quatre-vingt blessés</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1972</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1972</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>21 juillet, Irlande du Nord : en réponse au Bloody Sunday, l'IRA provisoire fait exploser vingt-deux bombes à Belfast, faisant neuf morts et plus de cent trente blessés. C'est le Bloody Friday,.
+31 juillet, Irlande du Nord : trois bombes explosent à Claudy (en), faisant neuf morts et trente blessés. Bien que jamais revendiquée, cette série d'attentats est attribuée à l'IRA provisoire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1972</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1972</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5 septembre : Allemagne de l'Ouest : la prise d'otages des Jeux olympiques de Munich par l'organisation palestinienne Septembre noir, se solde par la mort de douze personnes : onze athlètes israéliens, et un policier ouest-allemand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1972</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1972</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>26 novembre, Irlande : une bombe explose à Dublin, dans le quartier de Burgh Quay, faisant quarante blessés mais aucun mort[réf. souhaitée].</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1972</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1972</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er décembre, Irlande : deux bombes explosent à Dublin, la première à Eden Quay et la seconde à Sackville Place, tuant deux personnes[réf. souhaitée].</t>
         </is>
       </c>
     </row>
